--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menahem\PycharmProjects\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEF7629-4DB9-40DC-9B9C-78D4AB856B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7795C-EB2B-483A-9ECF-72E883C38DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="484">
   <si>
     <t>תז</t>
   </si>
@@ -49,9 +49,6 @@
     <t>גיאואינט</t>
   </si>
   <si>
-    <t>1 פת</t>
-  </si>
-  <si>
     <t>monday_images\2549041224_IMG-20250817-WA0141.jpg</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>אריאל עמירה</t>
   </si>
   <si>
-    <t>2 פת</t>
-  </si>
-  <si>
     <t>monday_images\2549035715_צילום מסך 2025-12-02 201226.png</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>אלעזר ערנטרוי</t>
   </si>
   <si>
-    <t>תכנות 2 פת</t>
-  </si>
-  <si>
     <t>monday_images\2549037069_צילום מסך 2025-12-02 201426.png</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>צביקה קליין</t>
   </si>
   <si>
-    <t>2 ים</t>
-  </si>
-  <si>
     <t>monday_images\2549035657_20240709_075645.heic</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>משה גרבר</t>
   </si>
   <si>
-    <t>1 ים</t>
-  </si>
-  <si>
     <t>monday_images\2549035596_IMG_1966.jpeg</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>אור רוזין</t>
   </si>
   <si>
-    <t>תכנות 1 ים</t>
-  </si>
-  <si>
     <t>monday_images\2549033698_20250820_222944.jpg</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>אלקטרוניקה פת</t>
   </si>
   <si>
-    <t>3 פת</t>
-  </si>
-  <si>
     <t>monday_images\2549033422_20250818_152225.jpg</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>אלקטרוניקה ים</t>
   </si>
   <si>
-    <t>3 ים</t>
-  </si>
-  <si>
     <t>monday_images\2549038634_20250127_164655.jpg</t>
   </si>
   <si>
@@ -529,9 +505,6 @@
     <t>נתי קליין</t>
   </si>
   <si>
-    <t>תכנות 2 ים</t>
-  </si>
-  <si>
     <t>monday_images\2549038675_IMG-20250902-WA0047.jpg</t>
   </si>
   <si>
@@ -616,9 +589,6 @@
     <t>יעקב שלום נוילנדר</t>
   </si>
   <si>
-    <t>תכנות 1 פת</t>
-  </si>
-  <si>
     <t>monday_images\2549033669_image.jpg</t>
   </si>
   <si>
@@ -1478,6 +1448,33 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>פת 1</t>
+  </si>
+  <si>
+    <t>תכנות פת 1</t>
+  </si>
+  <si>
+    <t>תכנות פת 2</t>
+  </si>
+  <si>
+    <t>ים 2</t>
+  </si>
+  <si>
+    <t>תכנות ים 2</t>
+  </si>
+  <si>
+    <t>ים 1</t>
+  </si>
+  <si>
+    <t>תכנות ים 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> פת 3</t>
+  </si>
+  <si>
+    <t>ים 3</t>
   </si>
 </sst>
 </file>
@@ -1774,27 +1771,27 @@
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="62.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1829,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -1844,20 +1841,22 @@
         <v>2549035698</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>323806554</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -1866,7 +1865,7 @@
         <v>2549037093</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>211885058</v>
@@ -1875,13 +1874,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1890,7 +1889,7 @@
         <v>2549035715</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>325037935</v>
@@ -1899,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1914,7 +1913,7 @@
         <v>2549037091</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>208091512</v>
@@ -1923,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1938,7 +1937,7 @@
         <v>2549041157</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>326375763</v>
@@ -1947,13 +1946,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1962,7 +1961,7 @@
         <v>2549033413</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>314622796</v>
@@ -1971,13 +1970,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1986,7 +1985,7 @@
         <v>2549042715</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>326593118</v>
@@ -1995,13 +1994,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2010,22 +2009,22 @@
         <v>2549037069</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>315640169</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2034,7 +2033,7 @@
         <v>2549037071</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>213291511</v>
@@ -2043,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2058,7 +2057,7 @@
         <v>2549035657</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>324138999</v>
@@ -2067,13 +2066,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -2082,7 +2081,7 @@
         <v>2549037074</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>323929968</v>
@@ -2091,13 +2090,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -2106,7 +2105,7 @@
         <v>2549037019</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>208830372</v>
@@ -2115,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -2130,7 +2129,7 @@
         <v>2549041131</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>325525475</v>
@@ -2139,13 +2138,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2154,7 +2153,7 @@
         <v>2549035596</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>209788793</v>
@@ -2163,13 +2162,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2178,7 +2177,7 @@
         <v>2549033531</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
         <v>211489489</v>
@@ -2187,13 +2186,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -2202,7 +2201,7 @@
         <v>2549035708</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>206760480</v>
@@ -2211,11 +2210,11 @@
         <v>7</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -2224,7 +2223,7 @@
         <v>2549038672</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>326200409</v>
@@ -2233,13 +2232,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -2248,22 +2247,22 @@
         <v>2549036967</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2">
         <v>212401871</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -2272,22 +2271,22 @@
         <v>2549035685</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>315239707</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -2296,22 +2295,22 @@
         <v>2549041145</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2">
         <v>212402283</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -2320,22 +2319,22 @@
         <v>2549035580</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
         <v>322433350</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -2344,22 +2343,22 @@
         <v>2549041142</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2">
         <v>315301564</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -2368,22 +2367,22 @@
         <v>2549041130</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2">
         <v>328115761</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -2392,22 +2391,22 @@
         <v>2549038637</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
         <v>206668386</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -2416,22 +2415,22 @@
         <v>2549033698</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2">
         <v>318877784</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2440,22 +2439,22 @@
         <v>2549035723</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2">
         <v>323787119</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -2464,22 +2463,22 @@
         <v>2549037154</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2">
         <v>213351257</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29" s="4"/>
     </row>
@@ -2488,22 +2487,22 @@
         <v>2549033422</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2">
         <v>315242982</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="4"/>
     </row>
@@ -2512,22 +2511,22 @@
         <v>2549042523</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2">
         <v>325751329</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -2536,22 +2535,22 @@
         <v>2549042646</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2">
         <v>212816912</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -2560,22 +2559,22 @@
         <v>2549042561</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2">
         <v>322318932</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -2584,22 +2583,22 @@
         <v>2549033529</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2">
         <v>326041704</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -2608,22 +2607,22 @@
         <v>2549033674</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2">
         <v>323054841</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -2632,22 +2631,22 @@
         <v>2549038694</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>207294976</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -2656,22 +2655,22 @@
         <v>2549038676</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2">
         <v>212758908</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -2680,22 +2679,22 @@
         <v>2549038805</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2">
         <v>215126236</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4"/>
     </row>
@@ -2704,22 +2703,22 @@
         <v>2549038784</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2">
         <v>325561520</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -2728,22 +2727,22 @@
         <v>2549033530</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2">
         <v>213140387</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="4"/>
     </row>
@@ -2752,22 +2751,22 @@
         <v>2549033660</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2">
         <v>318786282</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="4"/>
     </row>
@@ -2776,22 +2775,22 @@
         <v>2549042620</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2">
         <v>327755005</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -2800,22 +2799,22 @@
         <v>2549033376</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2">
         <v>313244790</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -2824,22 +2823,22 @@
         <v>2549042599</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2">
         <v>213277171</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -2848,22 +2847,22 @@
         <v>2549038634</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2">
         <v>214363582</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45" s="4"/>
     </row>
@@ -2872,22 +2871,22 @@
         <v>2549042714</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2">
         <v>325238517</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H46" s="4"/>
     </row>
@@ -2896,22 +2895,22 @@
         <v>2549042614</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2">
         <v>324819879</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47" s="4"/>
     </row>
@@ -2920,20 +2919,20 @@
         <v>2549035693</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2">
         <v>315205963</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H48" s="4"/>
     </row>
@@ -2942,22 +2941,22 @@
         <v>2549042531</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2">
         <v>322590191</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="G49" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -2966,22 +2965,22 @@
         <v>2549033496</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2">
         <v>332677020</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -2990,22 +2989,22 @@
         <v>2549037227</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2">
         <v>345904809</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H51" s="4"/>
     </row>
@@ -3014,22 +3013,22 @@
         <v>2549033544</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2">
         <v>212412563</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -3038,22 +3037,22 @@
         <v>2549038653</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2">
         <v>325892776</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -3062,22 +3061,22 @@
         <v>2549042642</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2">
         <v>315174706</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -3086,22 +3085,22 @@
         <v>2549033539</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2">
         <v>321561987</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H55" s="4"/>
     </row>
@@ -3110,22 +3109,22 @@
         <v>2549042552</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2">
         <v>213236714</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H56" s="4"/>
     </row>
@@ -3134,22 +3133,22 @@
         <v>2549038597</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2">
         <v>324219781</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57" s="4"/>
     </row>
@@ -3158,22 +3157,22 @@
         <v>2549033562</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2">
         <v>212044325</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H58" s="4"/>
     </row>
@@ -3182,22 +3181,22 @@
         <v>2549038778</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2">
         <v>212368161</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H59" s="4"/>
     </row>
@@ -3206,22 +3205,22 @@
         <v>2549042718</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2">
         <v>327506945</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -3230,22 +3229,22 @@
         <v>2549038824</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2">
         <v>328116579</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H61" s="4"/>
     </row>
@@ -3254,22 +3253,22 @@
         <v>2549038737</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2">
         <v>212961809</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="4"/>
     </row>
@@ -3278,22 +3277,22 @@
         <v>2549038733</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2">
         <v>326594215</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H63" s="4"/>
     </row>
@@ -3302,22 +3301,22 @@
         <v>2549038636</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2">
         <v>314818527</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H64" s="4"/>
     </row>
@@ -3326,22 +3325,22 @@
         <v>2549042619</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2">
         <v>214120354</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -3350,22 +3349,22 @@
         <v>2549033462</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2">
         <v>347532087</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H66" s="4"/>
     </row>
@@ -3374,22 +3373,22 @@
         <v>2549033541</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2">
         <v>325302537</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H67" s="4"/>
     </row>
@@ -3398,22 +3397,22 @@
         <v>2549033614</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2">
         <v>326038528</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H68" s="4"/>
     </row>
@@ -3422,22 +3421,22 @@
         <v>2549033423</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2">
         <v>213205321</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H69" s="4"/>
     </row>
@@ -3446,22 +3445,22 @@
         <v>2549033463</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C70" s="2">
         <v>211749932</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H70" s="4"/>
     </row>
@@ -3470,22 +3469,22 @@
         <v>2549042583</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2">
         <v>314818659</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H71" s="4"/>
     </row>
@@ -3494,22 +3493,22 @@
         <v>2549033594</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2">
         <v>212365720</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4"/>
     </row>
@@ -3518,22 +3517,22 @@
         <v>2549042560</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C73" s="2">
         <v>315131706</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H73" s="4"/>
     </row>
@@ -3542,22 +3541,22 @@
         <v>2549038787</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2">
         <v>315208587</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74" s="4"/>
     </row>
@@ -3566,22 +3565,22 @@
         <v>2549038675</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2">
         <v>322244112</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H75" s="4"/>
     </row>
@@ -3590,22 +3589,22 @@
         <v>2549033568</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2">
         <v>315244376</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H76" s="4"/>
     </row>
@@ -3614,22 +3613,22 @@
         <v>2549042611</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C77" s="2">
         <v>214661456</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H77" s="4"/>
     </row>
@@ -3638,22 +3637,22 @@
         <v>2549033593</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C78" s="2">
         <v>213689334</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H78" s="4"/>
     </row>
@@ -3662,22 +3661,22 @@
         <v>2549038638</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2">
         <v>213813744</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H79" s="4"/>
     </row>
@@ -3686,22 +3685,22 @@
         <v>2549042616</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C80" s="2">
         <v>325406072</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H80" s="4"/>
     </row>
@@ -3710,22 +3709,22 @@
         <v>2549033560</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2">
         <v>213088610</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H81" s="4"/>
     </row>
@@ -3734,22 +3733,22 @@
         <v>2549038779</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2">
         <v>324953603</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H82" s="4"/>
     </row>
@@ -3758,22 +3757,22 @@
         <v>2549038711</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2">
         <v>315364273</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H83" s="4"/>
     </row>
@@ -3782,22 +3781,22 @@
         <v>2549033551</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2">
         <v>208756270</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H84" s="4"/>
     </row>
@@ -3806,22 +3805,22 @@
         <v>2549033567</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C85" s="2">
         <v>213358773</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H85" s="4"/>
     </row>
@@ -3830,22 +3829,22 @@
         <v>2549042719</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2">
         <v>207459512</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H86" s="4"/>
     </row>
@@ -3854,22 +3853,22 @@
         <v>2549033538</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C87" s="2">
         <v>206593543</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H87" s="4"/>
     </row>
@@ -3878,22 +3877,22 @@
         <v>2549033447</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C88" s="2">
         <v>328175419</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H88" s="4"/>
     </row>
@@ -3902,22 +3901,22 @@
         <v>2549033669</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C89" s="2">
         <v>211594502</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H89" s="4"/>
     </row>
@@ -3926,22 +3925,22 @@
         <v>2549042557</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2">
         <v>214684037</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -3950,22 +3949,22 @@
         <v>2549038710</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C91" s="2">
         <v>214992513</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H91" s="4"/>
     </row>
@@ -3974,22 +3973,22 @@
         <v>2549042563</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C92" s="2">
         <v>322446261</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H92" s="4"/>
     </row>
@@ -3998,22 +3997,22 @@
         <v>2549033380</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C93" s="2">
         <v>213427883</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H93" s="4"/>
     </row>
@@ -4022,22 +4021,22 @@
         <v>2549038670</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C94" s="2">
         <v>207142423</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H94" s="4"/>
     </row>
@@ -4046,22 +4045,22 @@
         <v>2549042688</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C95" s="2">
         <v>325153526</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H95" s="4"/>
     </row>
@@ -4070,22 +4069,22 @@
         <v>2549033556</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C96" s="2">
         <v>227369451</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H96" s="4"/>
     </row>
@@ -4094,22 +4093,22 @@
         <v>2549037144</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C97" s="2">
         <v>214339822</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H97" s="4"/>
     </row>
@@ -4118,22 +4117,22 @@
         <v>2549037002</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C98" s="2">
         <v>323816587</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H98" s="4"/>
     </row>
@@ -4142,22 +4141,22 @@
         <v>2549033497</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C99" s="2">
         <v>322682246</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H99" s="4"/>
     </row>
@@ -4166,22 +4165,22 @@
         <v>2549041066</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C100" s="2">
         <v>214378820</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H100" s="4"/>
     </row>
@@ -4190,22 +4189,22 @@
         <v>2549038713</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C101" s="2">
         <v>325134666</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H101" s="4"/>
     </row>
@@ -4214,22 +4213,22 @@
         <v>2549038594</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2">
         <v>212036511</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H102" s="4"/>
     </row>
@@ -4238,22 +4237,22 @@
         <v>2549038640</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2">
         <v>325554368</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H103" s="4"/>
     </row>
@@ -4262,22 +4261,22 @@
         <v>2549041117</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C104" s="2">
         <v>323011379</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H104" s="4"/>
     </row>
@@ -4286,22 +4285,22 @@
         <v>2549037085</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C105" s="2">
         <v>315602011</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H105" s="4"/>
     </row>
@@ -4310,22 +4309,22 @@
         <v>2549035645</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2">
         <v>326001591</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H106" s="4"/>
     </row>
@@ -4334,22 +4333,22 @@
         <v>2549035629</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2">
         <v>326618444</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H107" s="4"/>
     </row>
@@ -4358,22 +4357,22 @@
         <v>2549042521</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C108" s="2">
         <v>208463869</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H108" s="4"/>
     </row>
@@ -4382,22 +4381,22 @@
         <v>2549038554</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C109" s="2">
         <v>324825538</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H109" s="4"/>
     </row>
@@ -4406,22 +4405,22 @@
         <v>2549038654</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2">
         <v>209560622</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H110" s="4"/>
     </row>
@@ -4430,22 +4429,22 @@
         <v>2549041151</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2">
         <v>207647629</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H111" s="4"/>
     </row>
@@ -4454,22 +4453,22 @@
         <v>2549038655</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2">
         <v>211431069</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H112" s="4"/>
     </row>
@@ -4478,22 +4477,22 @@
         <v>2549037003</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2">
         <v>315857318</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H113" s="4"/>
     </row>
@@ -4502,22 +4501,22 @@
         <v>2549038656</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2">
         <v>213877301</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H114" s="4"/>
     </row>
@@ -4526,22 +4525,22 @@
         <v>2549035783</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C115" s="2">
         <v>325375293</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H115" s="4"/>
     </row>
@@ -4550,22 +4549,22 @@
         <v>2549041069</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C116" s="2">
         <v>214597155</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H116" s="4"/>
     </row>
@@ -4574,22 +4573,22 @@
         <v>2549033424</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2">
         <v>206913956</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H117" s="4"/>
     </row>
@@ -4598,22 +4597,22 @@
         <v>2549036954</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C118" s="2">
         <v>324240860</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H118" s="4"/>
     </row>
@@ -4622,22 +4621,22 @@
         <v>2549041118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2">
         <v>213897697</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H119" s="4"/>
     </row>
@@ -4646,22 +4645,22 @@
         <v>2549038782</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C120" s="2">
         <v>213928401</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H120" s="4"/>
     </row>
@@ -4670,22 +4669,22 @@
         <v>2549041218</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C121" s="2">
         <v>209303155</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H121" s="4"/>
     </row>
@@ -4694,22 +4693,22 @@
         <v>2549033588</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2">
         <v>327532131</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H122" s="4"/>
     </row>
@@ -4718,22 +4717,22 @@
         <v>2549036955</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C123" s="2">
         <v>326668639</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H123" s="4"/>
     </row>
@@ -4742,22 +4741,22 @@
         <v>2549035796</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C124" s="2">
         <v>212222202</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H124" s="4"/>
     </row>
@@ -4766,22 +4765,22 @@
         <v>2549037294</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2">
         <v>327531331</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H125" s="4"/>
     </row>
@@ -4790,22 +4789,22 @@
         <v>2549035646</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C126" s="2">
         <v>214180242</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H126" s="4"/>
     </row>
@@ -4814,22 +4813,22 @@
         <v>2549041141</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C127" s="2">
         <v>212729099</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H127" s="4"/>
     </row>
@@ -4838,22 +4837,22 @@
         <v>2549037007</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2">
         <v>213496573</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H128" s="4"/>
     </row>
@@ -4862,22 +4861,22 @@
         <v>2549035676</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C129" s="2">
         <v>212129068</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H129" s="4"/>
     </row>
@@ -4886,22 +4885,22 @@
         <v>2549035711</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C130" s="2">
         <v>316528140</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H130" s="4"/>
     </row>
@@ -4910,22 +4909,22 @@
         <v>2549041221</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C131" s="2">
         <v>314886086</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H131" s="4"/>
     </row>
@@ -4934,22 +4933,22 @@
         <v>2549035677</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C132" s="2">
         <v>208891580</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H132" s="4"/>
     </row>
@@ -4958,22 +4957,22 @@
         <v>2549041154</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C133" s="2">
         <v>322593807</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H133" s="4"/>
     </row>
@@ -4982,22 +4981,22 @@
         <v>2549035798</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C134" s="2">
         <v>324252758</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H134" s="4"/>
     </row>
@@ -5006,22 +5005,22 @@
         <v>2549035578</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C135" s="2">
         <v>214377392</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H135" s="4"/>
     </row>
@@ -5030,22 +5029,22 @@
         <v>2549035412</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C136" s="2">
         <v>212120109</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H136" s="4"/>
     </row>
@@ -5054,22 +5053,22 @@
         <v>2549037065</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C137" s="2">
         <v>315548693</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H137" s="4"/>
     </row>
@@ -5078,22 +5077,22 @@
         <v>2549041128</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C138" s="2">
         <v>214434995</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H138" s="4"/>
     </row>
@@ -5102,22 +5101,22 @@
         <v>2549035684</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C139" s="2">
         <v>318673027</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H139" s="4"/>
     </row>
@@ -5126,22 +5125,22 @@
         <v>2549035706</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C140" s="2">
         <v>322929761</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H140" s="4"/>
     </row>
@@ -5150,22 +5149,22 @@
         <v>2549037152</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C141" s="2">
         <v>213120397</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H141" s="4"/>
     </row>
@@ -5174,22 +5173,22 @@
         <v>2549037092</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C142" s="2">
         <v>212509699</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H142" s="4"/>
     </row>
@@ -5198,22 +5197,22 @@
         <v>2549035582</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C143" s="2">
         <v>325449064</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H143" s="4"/>
     </row>
@@ -5222,22 +5221,22 @@
         <v>2549038557</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C144" s="2">
         <v>326617107</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H144" s="4"/>
     </row>
@@ -5246,22 +5245,22 @@
         <v>2549038743</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C145" s="2">
         <v>212174403</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H145" s="4"/>
     </row>
@@ -5270,22 +5269,22 @@
         <v>2549042519</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C146" s="2">
         <v>207813288</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H146" s="4"/>
     </row>
@@ -5294,22 +5293,22 @@
         <v>2549037067</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C147" s="2">
         <v>326638566</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H147" s="4"/>
     </row>
@@ -5318,22 +5317,22 @@
         <v>2549035479</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C148" s="2">
         <v>214378234</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H148" s="4"/>
     </row>
@@ -5342,22 +5341,22 @@
         <v>2549035695</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C149" s="2">
         <v>213917743</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H149" s="4"/>
     </row>
@@ -5366,22 +5365,22 @@
         <v>2549035537</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C150" s="2">
         <v>324151414</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H150" s="4"/>
     </row>
@@ -5390,22 +5389,22 @@
         <v>2549037291</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C151" s="2">
         <v>324953447</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H151" s="4"/>
     </row>
@@ -5414,22 +5413,22 @@
         <v>2549035799</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C152" s="2">
         <v>325019081</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H152" s="4"/>
     </row>
@@ -5438,22 +5437,22 @@
         <v>2549035703</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C153" s="2">
         <v>211769187</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H153" s="4"/>
     </row>
@@ -5462,22 +5461,22 @@
         <v>2549041223</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C154" s="2">
         <v>213054711</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H154" s="4"/>
     </row>
@@ -5486,22 +5485,22 @@
         <v>2549037290</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C155" s="2">
         <v>213396039</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H155" s="4"/>
     </row>
@@ -5510,22 +5509,22 @@
         <v>2549033673</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C156" s="2">
         <v>315162099</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H156" s="4"/>
     </row>
@@ -5534,22 +5533,22 @@
         <v>2549037089</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C157" s="2">
         <v>325959609</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H157" s="4"/>
     </row>
@@ -5558,22 +5557,22 @@
         <v>2549033634</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C158" s="2">
         <v>316334424</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H158" s="4"/>
     </row>
@@ -5582,22 +5581,22 @@
         <v>2549035683</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C159" s="2">
         <v>214715351</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H159" s="4"/>
     </row>
@@ -5606,20 +5605,20 @@
         <v>2549041094</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C160" s="2">
         <v>215068529</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H160" s="4"/>
     </row>
@@ -5628,22 +5627,22 @@
         <v>2549033494</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C161" s="2">
         <v>212055974</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H161" s="4"/>
     </row>
@@ -5652,22 +5651,22 @@
         <v>2549035628</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C162" s="2">
         <v>315445726</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H162" s="4"/>
     </row>
@@ -5676,22 +5675,22 @@
         <v>2549038652</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C163" s="2">
         <v>329606149</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H163" s="4"/>
     </row>
@@ -5700,22 +5699,22 @@
         <v>2549037147</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C164" s="2">
         <v>316289891</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H164" s="4"/>
     </row>
@@ -5724,22 +5723,22 @@
         <v>2549042584</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C165" s="2">
         <v>214872954</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H165" s="4"/>
     </row>
@@ -5748,20 +5747,20 @@
         <v>2549041171</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C166" s="2">
         <v>214984288</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H166" s="4"/>
     </row>
@@ -5770,22 +5769,22 @@
         <v>2549033408</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C167" s="2">
         <v>322675984</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H167" s="4"/>
     </row>
@@ -5794,22 +5793,22 @@
         <v>2549037016</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C168" s="2">
         <v>212626303</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H168" s="4"/>
     </row>
@@ -5818,22 +5817,22 @@
         <v>2549037084</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C169" s="2">
         <v>347566739</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H169" s="4"/>
     </row>
@@ -5842,22 +5841,22 @@
         <v>2549042627</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C170" s="2">
         <v>347663684</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H170" s="4"/>
     </row>
@@ -5866,22 +5865,22 @@
         <v>2549033536</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C171" s="2">
         <v>212043483</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H171" s="4"/>
     </row>
@@ -5890,22 +5889,22 @@
         <v>2549037051</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C172" s="2">
         <v>214942872</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H172" s="4"/>
     </row>
@@ -5914,22 +5913,22 @@
         <v>2549042517</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C173" s="2">
         <v>339810533</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H173" s="4"/>
     </row>
@@ -5938,22 +5937,22 @@
         <v>2549037146</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C174" s="2">
         <v>313282600</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H174" s="4"/>
     </row>
@@ -5962,22 +5961,22 @@
         <v>2549037052</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C175" s="2">
         <v>325954196</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H175" s="4"/>
     </row>
@@ -5986,22 +5985,22 @@
         <v>2549037148</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C176" s="2">
         <v>212217129</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H176" s="4"/>
     </row>
@@ -6010,22 +6009,22 @@
         <v>2549038606</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C177" s="2">
         <v>214431371</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H177" s="4"/>
     </row>
@@ -6034,22 +6033,22 @@
         <v>2549042613</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C178" s="2">
         <v>322740259</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H178" s="4"/>
     </row>
@@ -6058,22 +6057,22 @@
         <v>2549037087</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C179" s="2">
         <v>214385130</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H179" s="4"/>
     </row>
@@ -6082,22 +6081,22 @@
         <v>2549036980</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C180" s="2">
         <v>207290248</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H180" s="4"/>
     </row>
@@ -6106,22 +6105,22 @@
         <v>2549035644</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C181" s="2">
         <v>327121620</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H181" s="4"/>
     </row>
@@ -6130,22 +6129,22 @@
         <v>2549035720</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C182" s="2">
         <v>207505819</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H182" s="4"/>
     </row>
@@ -6154,22 +6153,22 @@
         <v>2549036982</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C183" s="2">
         <v>325468916</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H183" s="4"/>
     </row>
@@ -6178,22 +6177,22 @@
         <v>2549036953</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C184" s="2">
         <v>209931245</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H184" s="4"/>
     </row>
@@ -6202,22 +6201,22 @@
         <v>2549035675</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C185" s="2">
         <v>206479776</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H185" s="4"/>
     </row>
@@ -6226,22 +6225,22 @@
         <v>2549038688</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C186" s="2">
         <v>214189045</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H186" s="4"/>
     </row>
@@ -6250,22 +6249,22 @@
         <v>2549041071</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C187" s="2">
         <v>329676183</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H187" s="4"/>
     </row>
@@ -6274,22 +6273,22 @@
         <v>2549033613</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C188" s="2">
         <v>326131067</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H188" s="4"/>
     </row>
@@ -6298,22 +6297,22 @@
         <v>2549035482</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C189" s="2">
         <v>213292980</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H189" s="4"/>
     </row>
@@ -6322,22 +6321,22 @@
         <v>2549035576</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C190" s="2">
         <v>207320565</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H190" s="4"/>
     </row>
@@ -6346,22 +6345,22 @@
         <v>2549033633</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C191" s="2">
         <v>325585826</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H191" s="4"/>
     </row>
@@ -6370,22 +6369,22 @@
         <v>2549037008</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C192" s="2">
         <v>325909778</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H192" s="4"/>
     </row>
@@ -6394,22 +6393,22 @@
         <v>2549035480</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C193" s="2">
         <v>324499359</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H193" s="4"/>
     </row>
@@ -6418,22 +6417,22 @@
         <v>2549035678</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C194" s="2">
         <v>322271214</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H194" s="4"/>
     </row>
@@ -6442,22 +6441,22 @@
         <v>2549035481</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C195" s="2">
         <v>332336932</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H195" s="4"/>
     </row>
@@ -6466,22 +6465,22 @@
         <v>2549042553</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C196" s="2">
         <v>322382722</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H196" s="4"/>
     </row>
@@ -6490,22 +6489,22 @@
         <v>2549035538</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C197" s="2">
         <v>323058073</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H197" s="4"/>
     </row>
@@ -6514,22 +6513,22 @@
         <v>2549035712</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C198" s="2">
         <v>209300052</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H198" s="4"/>
     </row>
@@ -6538,22 +6537,22 @@
         <v>2549041219</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C199" s="2">
         <v>212727390</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H199" s="4"/>
     </row>
@@ -6562,22 +6561,22 @@
         <v>2549033379</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C200" s="2">
         <v>325481968</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H200" s="4"/>
     </row>
@@ -6586,22 +6585,22 @@
         <v>2549037150</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C201" s="2">
         <v>322651563</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H201" s="4"/>
     </row>
@@ -6610,22 +6609,22 @@
         <v>2549033548</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C202" s="2">
         <v>322461765</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H202" s="4"/>
     </row>
@@ -6634,22 +6633,22 @@
         <v>2549035647</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C203" s="2">
         <v>345810329</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H203" s="4"/>
     </row>
@@ -6658,22 +6657,22 @@
         <v>2549041072</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C204" s="2">
         <v>213114465</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H204" s="4"/>
     </row>
@@ -6682,22 +6681,22 @@
         <v>2549036956</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C205" s="2">
         <v>207835794</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H205" s="4"/>
     </row>
@@ -6706,22 +6705,22 @@
         <v>2549035704</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C206" s="2">
         <v>214346033</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H206" s="4"/>
     </row>
@@ -6730,22 +6729,22 @@
         <v>2549038657</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C207" s="2">
         <v>212312060</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H207" s="4"/>
     </row>
@@ -6754,22 +6753,22 @@
         <v>2549035411</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C208" s="2">
         <v>213288061</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H208" s="4"/>
     </row>
@@ -6778,22 +6777,22 @@
         <v>2549042562</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C209" s="2">
         <v>214378200</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H209" s="4"/>
     </row>
@@ -6802,22 +6801,22 @@
         <v>2549037149</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C210" s="2">
         <v>325087658</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H210" s="4"/>
     </row>
@@ -6826,22 +6825,22 @@
         <v>2549038709</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C211" s="2">
         <v>325735595</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H211" s="4"/>
     </row>
@@ -6850,22 +6849,22 @@
         <v>2549035579</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C212" s="2">
         <v>211779707</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H212" s="4"/>
     </row>
@@ -6874,22 +6873,22 @@
         <v>2549035800</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C213" s="2">
         <v>213659196</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H213" s="4"/>
     </row>
@@ -6898,22 +6897,22 @@
         <v>2549035485</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C214" s="2">
         <v>325573491</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H214" s="4"/>
     </row>
@@ -6922,22 +6921,22 @@
         <v>2549041073</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C215" s="2">
         <v>214337891</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H215" s="4"/>
     </row>
@@ -6946,22 +6945,22 @@
         <v>2549038706</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C216" s="2">
         <v>325444164</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H216" s="4"/>
     </row>
@@ -6970,22 +6969,22 @@
         <v>2549035581</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C217" s="2">
         <v>207897075</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H217" s="4"/>
     </row>
@@ -6994,22 +6993,22 @@
         <v>2549033549</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C218" s="2">
         <v>324863646</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H218" s="4"/>
     </row>
@@ -7018,22 +7017,22 @@
         <v>2549042687</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C219" s="2">
         <v>326023215</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H219" s="4"/>
     </row>
@@ -7042,22 +7041,22 @@
         <v>2549037068</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C220" s="2">
         <v>326057999</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H220" s="4"/>
     </row>
@@ -7066,22 +7065,22 @@
         <v>2549042596</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C221" s="2">
         <v>322690470</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H221" s="4"/>
     </row>
@@ -7090,22 +7089,22 @@
         <v>2549038659</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C222" s="2">
         <v>322638693</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H222" s="4"/>
     </row>
@@ -7114,19 +7113,19 @@
         <v>2549038658</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C223" s="2">
         <v>347740219</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G223" s="6"/>
       <c r="H223" s="4"/>
@@ -7136,22 +7135,22 @@
         <v>2549035594</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C224" s="2">
         <v>213361066</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H224" s="4"/>
     </row>
@@ -7160,22 +7159,22 @@
         <v>2549035682</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C225" s="2">
         <v>770324671</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H225" s="4"/>
     </row>
@@ -7184,22 +7183,22 @@
         <v>2549041092</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C226" s="2">
         <v>347533747</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H226" s="4"/>
     </row>
@@ -7208,22 +7207,22 @@
         <v>2549042647</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C227" s="2">
         <v>208059949</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H227" s="4"/>
     </row>
@@ -7232,22 +7231,22 @@
         <v>2549042689</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C228" s="2">
         <v>314668500</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>68</v>
+        <v>481</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H228" s="4"/>
     </row>
@@ -7256,22 +7255,22 @@
         <v>2549042564</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C229" s="2">
         <v>207964537</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H229" s="4"/>
     </row>
@@ -7280,22 +7279,22 @@
         <v>2549033561</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C230" s="2">
         <v>318750601</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>34</v>
+        <v>478</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H230" s="4"/>
     </row>
